--- a/results/result.xlsx
+++ b/results/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irors\PycharmProjects\check-nft-orbiter-finance\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E7FED3-2DCC-448D-8947-18254CB69AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3388C0CD-A7B1-4FE8-807A-739D33145962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="3585" windowWidth="27015" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39720" yWindow="1230" windowWidth="27015" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -384,13 +384,13 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -398,9 +398,6 @@
       <c r="B1" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B94">
-    <sortCondition descending="1" ref="B1:B94"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>